--- a/download/transaction.xlsx
+++ b/download/transaction.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -25,25 +25,34 @@
     <t>Type</t>
   </si>
   <si>
-    <t>2024-11-13</t>
+    <t>11/10/2024</t>
+  </si>
+  <si>
+    <t>便當</t>
+  </si>
+  <si>
+    <t>expense</t>
+  </si>
+  <si>
+    <t>11/13/2024</t>
+  </si>
+  <si>
+    <t>消夜</t>
+  </si>
+  <si>
+    <t>11/14/2024</t>
   </si>
   <si>
     <t>晚餐</t>
   </si>
   <si>
-    <t>expense</t>
-  </si>
-  <si>
-    <t>2024-11-12</t>
-  </si>
-  <si>
-    <t>消夜</t>
-  </si>
-  <si>
-    <t>2024-11-15</t>
+    <t>11/16/2024</t>
   </si>
   <si>
     <t>五之神</t>
+  </si>
+  <si>
+    <t>水</t>
   </si>
 </sst>
 </file>
@@ -420,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
@@ -447,7 +456,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -475,12 +484,40 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>350</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
     </row>

--- a/download/transaction.xlsx
+++ b/download/transaction.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -25,34 +25,13 @@
     <t>Type</t>
   </si>
   <si>
-    <t>11/10/2024</t>
-  </si>
-  <si>
-    <t>便當</t>
+    <t>11/13/2024</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>expense</t>
-  </si>
-  <si>
-    <t>11/13/2024</t>
-  </si>
-  <si>
-    <t>消夜</t>
-  </si>
-  <si>
-    <t>11/14/2024</t>
-  </si>
-  <si>
-    <t>晚餐</t>
-  </si>
-  <si>
-    <t>11/16/2024</t>
-  </si>
-  <si>
-    <t>五之神</t>
-  </si>
-  <si>
-    <t>水</t>
   </si>
 </sst>
 </file>
@@ -429,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
@@ -456,68 +435,12 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>444</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>250</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>350</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
         <v>6</v>
       </c>
     </row>

--- a/download/transaction.xlsx
+++ b/download/transaction.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -25,13 +25,25 @@
     <t>Type</t>
   </si>
   <si>
-    <t>11/13/2024</t>
+    <t>9/15/2024</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
     <t>expense</t>
+  </si>
+  <si>
+    <t>11/5/2024</t>
+  </si>
+  <si>
+    <t>我不好</t>
+  </si>
+  <si>
+    <t>r u ok?</t>
+  </si>
+  <si>
+    <t>income</t>
   </si>
 </sst>
 </file>
@@ -408,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
@@ -435,13 +447,41 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>256</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>512</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/download/transaction.xlsx
+++ b/download/transaction.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -34,16 +34,43 @@
     <t>expense</t>
   </si>
   <si>
-    <t>11/5/2024</t>
-  </si>
-  <si>
-    <t>我不好</t>
-  </si>
-  <si>
-    <t>r u ok?</t>
+    <t>10/31/2024</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>11/1/2024</t>
+  </si>
+  <si>
+    <t>11/12/2024</t>
+  </si>
+  <si>
+    <t>打工薪水</t>
   </si>
   <si>
     <t>income</t>
+  </si>
+  <si>
+    <t>11/13/2024</t>
+  </si>
+  <si>
+    <t>11/14/2024</t>
+  </si>
+  <si>
+    <t>協助場地收入</t>
+  </si>
+  <si>
+    <t>11/16/2024</t>
+  </si>
+  <si>
+    <t>鐵板燒</t>
+  </si>
+  <si>
+    <t>11/17/2024</t>
+  </si>
+  <si>
+    <t>高鐵票</t>
   </si>
 </sst>
 </file>
@@ -420,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
@@ -461,27 +488,111 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>256</v>
+        <v>10000</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
+        <v>8000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1256</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>256</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
         <v>512</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>256</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>256</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>1500</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/download/transaction.xlsx
+++ b/download/transaction.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -25,46 +25,112 @@
     <t>Type</t>
   </si>
   <si>
+    <t>9/1/2024</t>
+  </si>
+  <si>
+    <t>9月生活費</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>9月預算</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>9/11/2024</t>
+  </si>
+  <si>
+    <t>滑鼠</t>
+  </si>
+  <si>
+    <t>expense</t>
+  </si>
+  <si>
+    <t>9/12/2024</t>
+  </si>
+  <si>
+    <t>火車票</t>
+  </si>
+  <si>
     <t>9/15/2024</t>
   </si>
   <si>
+    <t>近期餐費</t>
+  </si>
+  <si>
+    <t>9/19/2024</t>
+  </si>
+  <si>
+    <t>10/1/2024</t>
+  </si>
+  <si>
+    <t>10月預算</t>
+  </si>
+  <si>
+    <t>10月生活費</t>
+  </si>
+  <si>
+    <t>10/10/2024</t>
+  </si>
+  <si>
+    <t>出去玩</t>
+  </si>
+  <si>
+    <t>10/19/2024</t>
+  </si>
+  <si>
+    <t>房租+水電</t>
+  </si>
+  <si>
+    <t>11/1/2024</t>
+  </si>
+  <si>
+    <t>11月預算</t>
+  </si>
+  <si>
+    <t>生活費</t>
+  </si>
+  <si>
+    <t>11/2/2024</t>
+  </si>
+  <si>
+    <t>聚餐</t>
+  </si>
+  <si>
+    <t>11/9/2024</t>
+  </si>
+  <si>
+    <t>股息</t>
+  </si>
+  <si>
+    <t>11/12/2024</t>
+  </si>
+  <si>
+    <t>打工薪水</t>
+  </si>
+  <si>
+    <t>11/13/2024</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>expense</t>
-  </si>
-  <si>
-    <t>10/31/2024</t>
-  </si>
-  <si>
-    <t>budget</t>
-  </si>
-  <si>
-    <t>11/1/2024</t>
-  </si>
-  <si>
-    <t>11/12/2024</t>
-  </si>
-  <si>
-    <t>打工薪水</t>
-  </si>
-  <si>
-    <t>income</t>
-  </si>
-  <si>
-    <t>11/13/2024</t>
-  </si>
-  <si>
     <t>11/14/2024</t>
   </si>
   <si>
-    <t>協助場地收入</t>
+    <t>打工收入</t>
   </si>
   <si>
     <t>11/16/2024</t>
   </si>
   <si>
-    <t>鐵板燒</t>
+    <t>洗衣精</t>
+  </si>
+  <si>
+    <t>IKEA購物</t>
   </si>
   <si>
     <t>11/17/2024</t>
@@ -447,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D23"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
@@ -474,7 +540,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -485,13 +551,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>10000</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -502,80 +568,80 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>8000</v>
+        <v>2490</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>1256</v>
+        <v>800</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>256</v>
+        <v>3250</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>512</v>
+        <v>800</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>256</v>
+        <v>9000</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>256</v>
+        <v>10000</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -583,16 +649,198 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>7500</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>8000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>10000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>500</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
         <v>1500</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>1256</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>256</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>1512</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>250</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>1254</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>256</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>500</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>1500</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/download/transaction.xlsx
+++ b/download/transaction.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -52,7 +52,13 @@
     <t>9/12/2024</t>
   </si>
   <si>
-    <t>火車票</t>
+    <t>火車票-去程</t>
+  </si>
+  <si>
+    <t>打工</t>
+  </si>
+  <si>
+    <t>股息</t>
   </si>
   <si>
     <t>9/15/2024</t>
@@ -64,6 +70,9 @@
     <t>9/19/2024</t>
   </si>
   <si>
+    <t>火車票-返程</t>
+  </si>
+  <si>
     <t>10/1/2024</t>
   </si>
   <si>
@@ -94,43 +103,43 @@
     <t>生活費</t>
   </si>
   <si>
-    <t>11/2/2024</t>
+    <t>11/3/2024</t>
+  </si>
+  <si>
+    <t>同學會聚餐</t>
+  </si>
+  <si>
+    <t>11/9/2024</t>
+  </si>
+  <si>
+    <t>11/12/2024</t>
+  </si>
+  <si>
+    <t>打工薪水</t>
+  </si>
+  <si>
+    <t>11/13/2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>11/14/2024</t>
+  </si>
+  <si>
+    <t>打工收入</t>
+  </si>
+  <si>
+    <t>11/16/2024</t>
   </si>
   <si>
     <t>聚餐</t>
   </si>
   <si>
-    <t>11/9/2024</t>
-  </si>
-  <si>
-    <t>股息</t>
-  </si>
-  <si>
-    <t>11/12/2024</t>
-  </si>
-  <si>
-    <t>打工薪水</t>
-  </si>
-  <si>
-    <t>11/13/2024</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>11/14/2024</t>
-  </si>
-  <si>
-    <t>打工收入</t>
-  </si>
-  <si>
-    <t>11/16/2024</t>
+    <t>IKEA購物</t>
   </si>
   <si>
     <t>洗衣精</t>
-  </si>
-  <si>
-    <t>IKEA購物</t>
   </si>
   <si>
     <t>11/17/2024</t>
@@ -513,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
@@ -593,58 +602,58 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1500</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>3250</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>3250</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
-        <v>9000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -652,55 +661,55 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>9000</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
-        <v>7500</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="B12">
-        <v>8000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -708,24 +717,24 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>10000</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
-      </c>
-      <c r="B15">
-        <v>1500</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -733,27 +742,27 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>600</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="B16">
-        <v>1256</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17">
-        <v>256</v>
+        <v>1500</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -761,13 +770,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18">
-        <v>1512</v>
+        <v>1256</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -775,16 +784,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -792,24 +801,24 @@
         <v>37</v>
       </c>
       <c r="B20">
-        <v>1254</v>
+        <v>1512</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21">
-        <v>256</v>
+        <v>500</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -817,13 +826,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22">
-        <v>500</v>
+        <v>1254</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -831,15 +840,29 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23">
+        <v>250</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
         <v>1500</v>
       </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
         <v>11</v>
       </c>
     </row>

--- a/download/transaction.xlsx
+++ b/download/transaction.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -52,7 +52,13 @@
     <t>9/12/2024</t>
   </si>
   <si>
-    <t>火車票</t>
+    <t>打工</t>
+  </si>
+  <si>
+    <t>股息</t>
+  </si>
+  <si>
+    <t>火車票-去程</t>
   </si>
   <si>
     <t>9/15/2024</t>
@@ -64,15 +70,18 @@
     <t>9/19/2024</t>
   </si>
   <si>
+    <t>火車票-返程</t>
+  </si>
+  <si>
     <t>10/1/2024</t>
   </si>
   <si>
+    <t>10月生活費</t>
+  </si>
+  <si>
     <t>10月預算</t>
   </si>
   <si>
-    <t>10月生活費</t>
-  </si>
-  <si>
     <t>10/10/2024</t>
   </si>
   <si>
@@ -94,49 +103,58 @@
     <t>生活費</t>
   </si>
   <si>
-    <t>11/2/2024</t>
+    <t>11/3/2024</t>
+  </si>
+  <si>
+    <t>同學會聚餐</t>
+  </si>
+  <si>
+    <t>11/9/2024</t>
+  </si>
+  <si>
+    <t>11/12/2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>晚餐</t>
+  </si>
+  <si>
+    <t>打工薪水</t>
+  </si>
+  <si>
+    <t>11/13/2024</t>
+  </si>
+  <si>
+    <t>11/14/2024</t>
+  </si>
+  <si>
+    <t>打工收入</t>
+  </si>
+  <si>
+    <t>11/16/2024</t>
   </si>
   <si>
     <t>聚餐</t>
   </si>
   <si>
-    <t>11/9/2024</t>
-  </si>
-  <si>
-    <t>股息</t>
-  </si>
-  <si>
-    <t>11/12/2024</t>
-  </si>
-  <si>
-    <t>打工薪水</t>
-  </si>
-  <si>
-    <t>11/13/2024</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>11/14/2024</t>
-  </si>
-  <si>
-    <t>打工收入</t>
-  </si>
-  <si>
-    <t>11/16/2024</t>
+    <t>IKEA購物</t>
   </si>
   <si>
     <t>洗衣精</t>
   </si>
   <si>
-    <t>IKEA購物</t>
-  </si>
-  <si>
     <t>11/17/2024</t>
   </si>
   <si>
     <t>高鐵票</t>
+  </si>
+  <si>
+    <t>11/26/2024</t>
+  </si>
+  <si>
+    <t>321</t>
   </si>
 </sst>
 </file>
@@ -513,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D28"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
@@ -582,38 +600,38 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>3250</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>800</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -621,30 +639,30 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>3250</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
-        <v>9000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -652,55 +670,55 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>9000</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
-        <v>7500</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="B12">
-        <v>8000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -708,24 +726,24 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>10000</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
-      </c>
-      <c r="B15">
-        <v>1500</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -733,27 +751,27 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>600</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="B16">
-        <v>1256</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17">
-        <v>256</v>
+        <v>1500</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -761,27 +779,27 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18">
-        <v>1512</v>
+        <v>250</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B19">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -789,16 +807,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -809,24 +827,24 @@
         <v>256</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22">
-        <v>500</v>
+        <v>1512</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -834,12 +852,82 @@
         <v>40</v>
       </c>
       <c r="B23">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
       </c>
       <c r="D23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>1254</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>250</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>1500</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>123</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <v>123</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
         <v>11</v>
       </c>
     </row>

--- a/download/transaction.xlsx
+++ b/download/transaction.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -25,118 +25,22 @@
     <t>Type</t>
   </si>
   <si>
-    <t>9/1/2024</t>
-  </si>
-  <si>
-    <t>9月生活費</t>
+    <t>11/25/2024</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>expense</t>
+  </si>
+  <si>
+    <t>mango</t>
+  </si>
+  <si>
+    <t>gaji</t>
   </si>
   <si>
     <t>income</t>
-  </si>
-  <si>
-    <t>9月預算</t>
-  </si>
-  <si>
-    <t>budget</t>
-  </si>
-  <si>
-    <t>9/11/2024</t>
-  </si>
-  <si>
-    <t>滑鼠</t>
-  </si>
-  <si>
-    <t>expense</t>
-  </si>
-  <si>
-    <t>9/12/2024</t>
-  </si>
-  <si>
-    <t>火車票</t>
-  </si>
-  <si>
-    <t>9/15/2024</t>
-  </si>
-  <si>
-    <t>近期餐費</t>
-  </si>
-  <si>
-    <t>9/19/2024</t>
-  </si>
-  <si>
-    <t>10/1/2024</t>
-  </si>
-  <si>
-    <t>10月預算</t>
-  </si>
-  <si>
-    <t>10月生活費</t>
-  </si>
-  <si>
-    <t>10/10/2024</t>
-  </si>
-  <si>
-    <t>出去玩</t>
-  </si>
-  <si>
-    <t>10/19/2024</t>
-  </si>
-  <si>
-    <t>房租+水電</t>
-  </si>
-  <si>
-    <t>11/1/2024</t>
-  </si>
-  <si>
-    <t>11月預算</t>
-  </si>
-  <si>
-    <t>生活費</t>
-  </si>
-  <si>
-    <t>11/2/2024</t>
-  </si>
-  <si>
-    <t>聚餐</t>
-  </si>
-  <si>
-    <t>11/9/2024</t>
-  </si>
-  <si>
-    <t>股息</t>
-  </si>
-  <si>
-    <t>11/12/2024</t>
-  </si>
-  <si>
-    <t>打工薪水</t>
-  </si>
-  <si>
-    <t>11/13/2024</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>11/14/2024</t>
-  </si>
-  <si>
-    <t>打工收入</t>
-  </si>
-  <si>
-    <t>11/16/2024</t>
-  </si>
-  <si>
-    <t>洗衣精</t>
-  </si>
-  <si>
-    <t>IKEA購物</t>
-  </si>
-  <si>
-    <t>11/17/2024</t>
-  </si>
-  <si>
-    <t>高鐵票</t>
   </si>
 </sst>
 </file>
@@ -513,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
@@ -540,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -554,293 +458,27 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4">
-        <v>2490</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>800</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>3250</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>800</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>9000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>10000</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>1000</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>7500</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12">
-        <v>8000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>10000</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14">
-        <v>500</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15">
-        <v>1500</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16">
-        <v>1256</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17">
-        <v>256</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18">
-        <v>1512</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19">
-        <v>250</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20">
-        <v>1254</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21">
-        <v>256</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22">
-        <v>500</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23">
-        <v>1500</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
